--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Grm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Grm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,27 +567,27 @@
         <v>0.009341</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.005310654226435927</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.005310654226435927</v>
       </c>
       <c r="Q2">
-        <v>0.1260964506586667</v>
+        <v>0.1650772485415</v>
       </c>
       <c r="R2">
-        <v>0.7565787039520001</v>
+        <v>0.9904634912490001</v>
       </c>
       <c r="S2">
-        <v>0.4338277436889532</v>
+        <v>0.003952412530441635</v>
       </c>
       <c r="T2">
-        <v>0.3549025979779167</v>
+        <v>0.003739552202526238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.464838333333333</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>19.394515</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.06925390168635236</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.08498208097388053</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.003113666666666667</v>
+        <v>0.5831919999999999</v>
       </c>
       <c r="N3">
-        <v>0.009341</v>
+        <v>1.749576</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.994689345773564</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.994689345773564</v>
       </c>
       <c r="Q3">
-        <v>0.02012935162388889</v>
+        <v>30.919087056444</v>
       </c>
       <c r="R3">
-        <v>0.181164164615</v>
+        <v>185.514522338664</v>
       </c>
       <c r="S3">
-        <v>0.06925390168635236</v>
+        <v>0.7402897018905847</v>
       </c>
       <c r="T3">
-        <v>0.08498208097388053</v>
+        <v>0.700420809794138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7642823333333334</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H4">
-        <v>2.292847</v>
+        <v>19.394515</v>
       </c>
       <c r="I4">
-        <v>0.008187294228282994</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J4">
-        <v>0.01004670183372562</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,27 +691,27 @@
         <v>0.009341</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005310654226435927</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005310654226435927</v>
       </c>
       <c r="Q4">
-        <v>0.002379720425222223</v>
+        <v>0.02012935162388889</v>
       </c>
       <c r="R4">
-        <v>0.021417483827</v>
+        <v>0.181164164615</v>
       </c>
       <c r="S4">
-        <v>0.008187294228282994</v>
+        <v>0.0004819531600559907</v>
       </c>
       <c r="T4">
-        <v>0.01004670183372562</v>
+        <v>0.0006839957825709844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.464838333333333</v>
+      </c>
+      <c r="H5">
+        <v>19.394515</v>
+      </c>
+      <c r="I5">
+        <v>0.09075212572810222</v>
+      </c>
+      <c r="J5">
+        <v>0.1287968964663749</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>11.332808</v>
-      </c>
-      <c r="H5">
-        <v>22.665616</v>
-      </c>
-      <c r="I5">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J5">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.003113666666666667</v>
+        <v>0.5831919999999999</v>
       </c>
       <c r="N5">
-        <v>0.009341</v>
+        <v>1.749576</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.994689345773564</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.994689345773564</v>
       </c>
       <c r="Q5">
-        <v>0.03528658650933333</v>
+        <v>3.770241997293333</v>
       </c>
       <c r="R5">
-        <v>0.211719519056</v>
+        <v>33.93217797563999</v>
       </c>
       <c r="S5">
-        <v>0.1214015154896589</v>
+        <v>0.09027017256804623</v>
       </c>
       <c r="T5">
-        <v>0.09931525558823628</v>
+        <v>0.1281129006838039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.754358</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H6">
-        <v>101.263074</v>
+        <v>2.036719</v>
       </c>
       <c r="I6">
-        <v>0.3615900150766246</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J6">
-        <v>0.4437103353361534</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,27 +815,27 @@
         <v>0.009341</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.005310654226435927</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.005310654226435927</v>
       </c>
       <c r="Q6">
-        <v>0.1050998193593333</v>
+        <v>0.002113888019888889</v>
       </c>
       <c r="R6">
-        <v>0.9458983742339999</v>
+        <v>0.019024992179</v>
       </c>
       <c r="S6">
-        <v>0.3615900150766246</v>
+        <v>5.061241068395251E-05</v>
       </c>
       <c r="T6">
-        <v>0.4437103353361534</v>
+        <v>7.182995843320612E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,418 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.535784</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H7">
-        <v>1.607352</v>
+        <v>2.036719</v>
       </c>
       <c r="I7">
-        <v>0.00573952983012784</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J7">
-        <v>0.007043028290087628</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.5831919999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.749576</v>
+      </c>
+      <c r="O7">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="P7">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="Q7">
+        <v>0.3959327423493332</v>
+      </c>
+      <c r="R7">
+        <v>3.563394681143999</v>
+      </c>
+      <c r="S7">
+        <v>0.009479740823764788</v>
+      </c>
+      <c r="T7">
+        <v>0.01345380273586715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.1095025</v>
+      </c>
+      <c r="H8">
+        <v>20.219005</v>
+      </c>
+      <c r="I8">
+        <v>0.1419152026119597</v>
+      </c>
+      <c r="J8">
+        <v>0.1342722462324073</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>0.003113666666666667</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>0.009341</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.001668252781333334</v>
-      </c>
-      <c r="R7">
-        <v>0.015014275032</v>
-      </c>
-      <c r="S7">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="T7">
-        <v>0.007043028290087628</v>
+      <c r="O8">
+        <v>0.005310654226435927</v>
+      </c>
+      <c r="P8">
+        <v>0.005310654226435927</v>
+      </c>
+      <c r="Q8">
+        <v>0.03147762095083333</v>
+      </c>
+      <c r="R8">
+        <v>0.188865725705</v>
+      </c>
+      <c r="S8">
+        <v>0.0007536625705467145</v>
+      </c>
+      <c r="T8">
+        <v>0.0007130734719471793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.1095025</v>
+      </c>
+      <c r="H9">
+        <v>20.219005</v>
+      </c>
+      <c r="I9">
+        <v>0.1419152026119597</v>
+      </c>
+      <c r="J9">
+        <v>0.1342722462324073</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5831919999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.749576</v>
+      </c>
+      <c r="O9">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="P9">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="Q9">
+        <v>5.895780981979999</v>
+      </c>
+      <c r="R9">
+        <v>35.37468589187999</v>
+      </c>
+      <c r="S9">
+        <v>0.141161540041413</v>
+      </c>
+      <c r="T9">
+        <v>0.1335591727604601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5288903333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.586671</v>
+      </c>
+      <c r="I10">
+        <v>0.007424458207958987</v>
+      </c>
+      <c r="J10">
+        <v>0.01053691213795238</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.003113666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.009341</v>
+      </c>
+      <c r="O10">
+        <v>0.005310654226435927</v>
+      </c>
+      <c r="P10">
+        <v>0.005310654226435927</v>
+      </c>
+      <c r="Q10">
+        <v>0.001646788201222222</v>
+      </c>
+      <c r="R10">
+        <v>0.014821093811</v>
+      </c>
+      <c r="S10">
+        <v>3.942873036109431E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.595789697900084E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5288903333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.586671</v>
+      </c>
+      <c r="I11">
+        <v>0.007424458207958987</v>
+      </c>
+      <c r="J11">
+        <v>0.01053691213795238</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.5831919999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.749576</v>
+      </c>
+      <c r="O11">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="P11">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="Q11">
+        <v>0.3084446112773333</v>
+      </c>
+      <c r="R11">
+        <v>2.776001501496</v>
+      </c>
+      <c r="S11">
+        <v>0.007385029477597892</v>
+      </c>
+      <c r="T11">
+        <v>0.01048095424097338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.311262</v>
+      </c>
+      <c r="I12">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J12">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.003113666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.009341</v>
+      </c>
+      <c r="O12">
+        <v>0.005310654226435927</v>
+      </c>
+      <c r="P12">
+        <v>0.005310654226435927</v>
+      </c>
+      <c r="Q12">
+        <v>0.001360944260222222</v>
+      </c>
+      <c r="R12">
+        <v>0.012248498342</v>
+      </c>
+      <c r="S12">
+        <v>3.258482434654017E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.624491397931808E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.311262</v>
+      </c>
+      <c r="I13">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J13">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.5831919999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.749576</v>
+      </c>
+      <c r="O13">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="P13">
+        <v>0.994689345773564</v>
+      </c>
+      <c r="Q13">
+        <v>0.2549058361013333</v>
+      </c>
+      <c r="R13">
+        <v>2.294152524912</v>
+      </c>
+      <c r="S13">
+        <v>0.006103160972157409</v>
+      </c>
+      <c r="T13">
+        <v>0.008661705558321315</v>
       </c>
     </row>
   </sheetData>
